--- a/UNIPA/Data_Input.xlsx
+++ b/UNIPA/Data_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipa-my.sharepoint.com/personal/francesco_montana_unipa_it/Documents/0 RTD-A 2022/2 Progetto NEST/2 Task 8.4.3/2 Deliverables/Milestone 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_03BA3B8223BEBBB77BF9805A0B46F43B31055FAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8EB55E-0BDD-4B36-A7C3-7D53165568D7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_03BA3B8223BEBBB77BF9805A0B46F43B31055FAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1579E6B8-1608-45D3-A2E0-08010951A1E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loads" sheetId="1" r:id="rId1"/>
@@ -1337,6 +1337,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1661,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8618,7 +8622,7 @@
         <v>111.93</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>216.9</v>
       </c>
       <c r="F3" s="1">
         <f>1400*0.91</f>
@@ -8638,23 +8642,23 @@
         <v>8272.81</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L3" s="1">
         <v>171.33</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>195.5</v>
       </c>
       <c r="N3" s="1">
-        <f>460.843544693586*0.91</f>
-        <v>419.3676256711633</v>
+        <f>44.59</f>
+        <v>44.59</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>65.459999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8696,14 +8700,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f>744508.608506687*0.91</f>
-        <v>677502.83374108514</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8987,7 +8990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
